--- a/ISC2-CCSP/CCSP_Domain_Matrix.xlsx
+++ b/ISC2-CCSP/CCSP_Domain_Matrix.xlsx
@@ -12,7 +12,7 @@
     <sheet name="CCSP_Domain" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Matrix!$A$1:$F$14</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Matrix!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -65,12 +65,96 @@
         </r>
       </text>
     </comment>
+    <comment ref="F7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., application capability types, platform capability types, infrastructure capability types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., Software as a Service (SaaS), Infrastructure as a Service (IaaS), Platform as a Service (PaaS)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., public, private, hybrid, community</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., interoperability, portability, reversibility, availability, security, privacy, resiliency, performance, governance, maintenance and versioning, service levels and Service Level Agreements (SLA), auditability, regulatory</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., machine learning, artificial intelligence, blockchain, Internet of Things (IoT), containers, quantum computing</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., overwriting, cryptographic erase</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">e.g., network security groups</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t xml:space="preserve">Domain#</t>
   </si>
@@ -123,7 +207,79 @@
     <t xml:space="preserve">Describe Cloud Reference Architecture</t>
   </si>
   <si>
+    <t xml:space="preserve">1.2.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Computing Activities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Service Capabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Service Categories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Deployment Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cloud Shared Considerations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact of Related Technologies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Understand Security Concepts Relevant to Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cryptography and Key Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data and Media Sanitization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virtualization Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Threats</t>
   </si>
   <si>
     <t xml:space="preserve">Understand Design Principles of Secure Cloud Computing</t>
@@ -260,24 +416,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="67.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
   </cols>
   <sheetData>
@@ -394,6 +550,12 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -403,10 +565,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,10 +585,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,54 +605,188 @@
         <v>6</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F14"/>
+  <autoFilter ref="A1:F24"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -518,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>0.19</v>
@@ -548,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>0.17</v>
@@ -559,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>0.17</v>
@@ -570,7 +878,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>0.17</v>
@@ -581,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0.13</v>

--- a/ISC2-CCSP/CCSP_Domain_Matrix.xlsx
+++ b/ISC2-CCSP/CCSP_Domain_Matrix.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v0cn037\Documents\GitHub\cloud_computing\ISC2-CCSP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Matrix" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="CCSP_Domain" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Matrix" sheetId="1" r:id="rId1"/>
+    <sheet name="CCSP_Domain" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Matrix!$A$1:$F$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Matrix!$A$1:$F$53</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -24,12 +28,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author> </author>
+    <author/>
+    <author>Zhao Xiaoqi</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,11 +42,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g. cloud service customer, cloud service provider, cloud service partner, cloud service broker</t>
+          <t>e.g. cloud service customer, cloud service provider, cloud service partner, cloud service broker</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0">
+    <comment ref="F4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,11 +54,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., on-demand self-service, broad network access, multi-tenancy, rapid elasticity and scalability, resource pooling, measured service</t>
+          <t>e.g., on-demand self-service, broad network access, multi-tenancy, rapid elasticity and scalability, resource pooling, measured service</t>
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="0">
+    <comment ref="F5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -61,11 +66,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., virtualization, storage, networking, databases, orchestration</t>
+          <t>e.g., virtualization, storage, networking, databases, orchestration</t>
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,11 +78,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., application capability types, platform capability types, infrastructure capability types</t>
+          <t>e.g., application capability types, platform capability types, infrastructure capability types</t>
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,11 +90,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., Software as a Service (SaaS), Infrastructure as a Service (IaaS), Platform as a Service (PaaS)</t>
+          <t>e.g., Software as a Service (SaaS), Infrastructure as a Service (IaaS), Platform as a Service (PaaS)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F9" authorId="0">
+    <comment ref="F9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,11 +102,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., public, private, hybrid, community</t>
+          <t>e.g., public, private, hybrid, community</t>
         </r>
       </text>
     </comment>
-    <comment ref="F10" authorId="0">
+    <comment ref="F10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,11 +114,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., interoperability, portability, reversibility, availability, security, privacy, resiliency, performance, governance, maintenance and versioning, service levels and Service Level Agreements (SLA), auditability, regulatory</t>
+          <t>e.g., interoperability, portability, reversibility, availability, security, privacy, resiliency, performance, governance, maintenance and versioning, service levels and Service Level Agreements (SLA), auditability, regulatory</t>
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,11 +126,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., machine learning, artificial intelligence, blockchain, Internet of Things (IoT), containers, quantum computing</t>
+          <t>e.g., machine learning, artificial intelligence, blockchain, Internet of Things (IoT), containers, quantum computing</t>
         </r>
       </text>
     </comment>
-    <comment ref="F14" authorId="0">
+    <comment ref="F14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -133,11 +138,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., overwriting, cryptographic erase</t>
+          <t>e.g., overwriting, cryptographic erase</t>
         </r>
       </text>
     </comment>
-    <comment ref="F15" authorId="0">
+    <comment ref="F15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,223 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">e.g., network security groups</t>
+          <t>e.g., network security groups</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F21" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., portability, interoperability, vendor lock-in</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F22" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., SaaS, IaaS, PaaS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F23" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., ISO/IEC 27017, PCI DSS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., Common Criteria (CC), Federal Information Processing Standard (FIPS) 140-2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., long term, ephemeral, raw-disk</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F35" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., anonymization</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F40" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., Protected Health Information (PHI), Personally Identificable Information (PII), Card Holder Data</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F41" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., data rights, provisioning, access models</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F42" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Zhao Xiaoqi:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g., issuing and revocation of certificates</t>
         </r>
       </text>
     </comment>
@@ -154,186 +375,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
-  <si>
-    <t xml:space="preserve">Domain#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domain Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-Domain#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub Domain Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detail Req #</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detail Requirements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Concept, Architecture and Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand Cloud Computing Concepts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Computing Definitions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Computing Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Key Cloud Computing Characteristics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Building Block Technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Describe Cloud Reference Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Computing Activities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Service Capabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Service Categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Deployment Models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Shared Considerations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impact of Related Technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand Security Concepts Relevant to Cloud Computing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cryptography and Key Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Access Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data and Media Sanitization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Virtualization Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Common Threats</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understand Design Principles of Secure Cloud Computing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluate Cloud Service Providers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Data Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Platform &amp; Infrastructure Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Application Security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cloud Security Operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal, Risk and Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exam Weight</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="122">
+  <si>
+    <t>Domain#</t>
+  </si>
+  <si>
+    <t>Domain Name</t>
+  </si>
+  <si>
+    <t>Sub-Domain#</t>
+  </si>
+  <si>
+    <t>Sub Domain Name</t>
+  </si>
+  <si>
+    <t>Detail Req #</t>
+  </si>
+  <si>
+    <t>Detail Requirements</t>
+  </si>
+  <si>
+    <t>Cloud Concept, Architecture and Design</t>
+  </si>
+  <si>
+    <t>Understand Cloud Computing Concepts</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>Cloud Computing Definitions</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>Cloud Computing Roles</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>Key Cloud Computing Characteristics</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Building Block Technologies</t>
+  </si>
+  <si>
+    <t>Describe Cloud Reference Architecture</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Cloud Computing Activities</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>Cloud Service Capabilities</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>Cloud Service Categories</t>
+  </si>
+  <si>
+    <t>1.2.4</t>
+  </si>
+  <si>
+    <t>Cloud Deployment Models</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>Cloud Shared Considerations</t>
+  </si>
+  <si>
+    <t>1.2.6</t>
+  </si>
+  <si>
+    <t>Impact of Related Technologies</t>
+  </si>
+  <si>
+    <t>Understand Security Concepts Relevant to Cloud Computing</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Cryptography and Key Management</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>Access Control</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>Data and Media Sanitization</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>Virtualization Security</t>
+  </si>
+  <si>
+    <t>1.3.6</t>
+  </si>
+  <si>
+    <t>Common Threats</t>
+  </si>
+  <si>
+    <t>Understand Design Principles of Secure Cloud Computing</t>
+  </si>
+  <si>
+    <t>Evaluate Cloud Service Providers</t>
+  </si>
+  <si>
+    <t>Cloud Data Security</t>
+  </si>
+  <si>
+    <t>Cloud Platform &amp; Infrastructure Security</t>
+  </si>
+  <si>
+    <t>Cloud Application Security</t>
+  </si>
+  <si>
+    <t>Cloud Security Operations</t>
+  </si>
+  <si>
+    <t>Legal, Risk and Compliance</t>
+  </si>
+  <si>
+    <t>Exam Weight</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Cloud Secure Data Lifecycle</t>
+  </si>
+  <si>
+    <t>1.4.2</t>
+  </si>
+  <si>
+    <t>Cloud based Disaster Recovery (DR) and Business Continuity (BC) Planning</t>
+  </si>
+  <si>
+    <t>Cost Benefit Analysis</t>
+  </si>
+  <si>
+    <t>Functional Security Requirements</t>
+  </si>
+  <si>
+    <t>Security Considerations for Different Cloud Categories</t>
+  </si>
+  <si>
+    <t>1.4.3</t>
+  </si>
+  <si>
+    <t>1.4.4</t>
+  </si>
+  <si>
+    <t>1.4.5</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Verification Against Criteria</t>
+  </si>
+  <si>
+    <t>System/subsystem Product Certifications</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Describe Cloud Data Concepts</t>
+  </si>
+  <si>
+    <t>Cloud Data Life Cycle Phases</t>
+  </si>
+  <si>
+    <t>Data Dispersion</t>
+  </si>
+  <si>
+    <t>2.1.1</t>
+  </si>
+  <si>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>Design and Implement Cloud Data Storage Architectures</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>Storage Types</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Threats to Storage Types</t>
+  </si>
+  <si>
+    <t>Design and Apply Data Security Technologies and Strategies</t>
+  </si>
+  <si>
+    <t>2.3.1</t>
+  </si>
+  <si>
+    <t>Encryption and Key Management</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>Masking</t>
+  </si>
+  <si>
+    <t>Tokenization</t>
+  </si>
+  <si>
+    <t>Data Loss Prevention (DLP)</t>
+  </si>
+  <si>
+    <t>Data Obfuscation</t>
+  </si>
+  <si>
+    <t>Data De-identification</t>
+  </si>
+  <si>
+    <t>2.3.2</t>
+  </si>
+  <si>
+    <t>2.3.3</t>
+  </si>
+  <si>
+    <t>2.3.4</t>
+  </si>
+  <si>
+    <t>2.3.5</t>
+  </si>
+  <si>
+    <t>2.3.6</t>
+  </si>
+  <si>
+    <t>2.3.7</t>
+  </si>
+  <si>
+    <t>Implement Data Discovery</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>Structured Data</t>
+  </si>
+  <si>
+    <t>Unstructured Data</t>
+  </si>
+  <si>
+    <t>2.4.2</t>
+  </si>
+  <si>
+    <t>Implement Data Classification</t>
+  </si>
+  <si>
+    <t>2.5.1</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+  </si>
+  <si>
+    <t>Labeling</t>
+  </si>
+  <si>
+    <t>Sensitive Data</t>
+  </si>
+  <si>
+    <t>2.5.2</t>
+  </si>
+  <si>
+    <t>2.5.3</t>
+  </si>
+  <si>
+    <t>Design and Implement Information Rights Management (IRM)</t>
+  </si>
+  <si>
+    <t>2.6.1</t>
+  </si>
+  <si>
+    <t>Objectives</t>
+  </si>
+  <si>
+    <t>Appropriate Tools</t>
+  </si>
+  <si>
+    <t>2.6.2</t>
+  </si>
+  <si>
+    <t>Plan and Implement Data Retention, Deleting and Archiving Policies</t>
+  </si>
+  <si>
+    <t>2.7.1</t>
+  </si>
+  <si>
+    <t>Data Retention Policies</t>
+  </si>
+  <si>
+    <t>Data Deletion Procedures and Mechanisms</t>
+  </si>
+  <si>
+    <t>Data Archiving Procedures and Mechanisms</t>
+  </si>
+  <si>
+    <t>Legal Hold</t>
+  </si>
+  <si>
+    <t>2.7.2</t>
+  </si>
+  <si>
+    <t>2.7.3</t>
+  </si>
+  <si>
+    <t>2.7.4</t>
+  </si>
+  <si>
+    <t>Design and Implement Auditability, Traceability and Accountability of Data Events</t>
+  </si>
+  <si>
+    <t>2.8.1</t>
+  </si>
+  <si>
+    <t>Definition of Event Sources and Requirement of Identity Attribution</t>
+  </si>
+  <si>
+    <t>Logging, Storage and Analysis of Data Events</t>
+  </si>
+  <si>
+    <t>Chain of Custody and Non-Repudiation</t>
+  </si>
+  <si>
+    <t>2.8.2</t>
+  </si>
+  <si>
+    <t>2.8.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,7 +776,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -353,91 +784,327 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E47" sqref="E47:E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="47.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.52"/>
+    <col min="1" max="1" width="5.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="70.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.85546875" style="5" customWidth="1"/>
+    <col min="7" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -453,19 +1120,19 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>1.1</v>
+      <c r="C2" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
@@ -473,19 +1140,19 @@
       <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>1.1</v>
+      <c r="C3" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
@@ -493,19 +1160,19 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1.1</v>
+      <c r="C4" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>7</v>
@@ -513,19 +1180,19 @@
       <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1.1</v>
+      <c r="C5" s="1">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -533,18 +1200,18 @@
       <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>1.2</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -553,18 +1220,18 @@
       <c r="E6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>1.2</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -573,18 +1240,18 @@
       <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>1.2</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -593,18 +1260,18 @@
       <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>1.2</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -613,18 +1280,18 @@
       <c r="E9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="1">
         <v>1.2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -633,18 +1300,18 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>1.2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -653,18 +1320,18 @@
       <c r="E11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="C12" s="1">
         <v>1.3</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -673,152 +1340,811 @@
       <c r="E12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="1" t="n">
+      <c r="C18" s="1">
         <v>1.4</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="E18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="1">
         <v>1.5</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+      <c r="E23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>2</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>2</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>2</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>2</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>2</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>2</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>2</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>2</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>2</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>3</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>4</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>5</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>6</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F24"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="A1:F53"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="33.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="1" width="11.52"/>
+    <col min="1" max="1" width="8.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3"/>
+    <col min="4" max="1024" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -829,83 +2155,82 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>0.19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>0.17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>0.13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="3" t="n">
-        <f aca="false">SUM(C2:C7)</f>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="3">
+        <f>SUM(C2:C7)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
